--- a/case_study/input/warehouses.xlsx
+++ b/case_study/input/warehouses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[PAPER]NetworkDesign Distributionally Robust\numerical\Case Study\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[PAPER]NetworkDesign Distributionally Robust\code\two_stage_distributionally_robust_copositive_cone\case_study\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>holding cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仓库网站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,6 +161,62 @@
   </si>
   <si>
     <t>https://www.toodc.cn/project/detail/865</t>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f*250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f*250*7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 库存成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12周后outlets，价格减半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 10%折损率（内部资料）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 6%资金利率（内部资料）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epsilon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f*250*7/469</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f*250*7/469/40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -500,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -512,7 +564,7 @@
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,16 +580,40 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
       <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>3.83</v>
@@ -549,16 +625,52 @@
         <v>0.23</v>
       </c>
       <c r="F2">
-        <f>SUM(C2:E2)</f>
+        <f t="shared" ref="F2:F8" si="0">SUM(C2:E2)</f>
         <v>4.2600000000000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2">
+        <f>F2*250</f>
+        <v>1065.0000000000002</v>
+      </c>
+      <c r="H2">
+        <f>G2*7</f>
+        <v>7455.0000000000018</v>
+      </c>
+      <c r="I2">
+        <f>H2/469</f>
+        <v>15.895522388059705</v>
+      </c>
+      <c r="J2">
+        <f>I2/40</f>
+        <v>0.3973880597014926</v>
+      </c>
+      <c r="M2">
+        <f>469/2/12/469</f>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="N2">
+        <f>469*0.1/12/469</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="O2">
+        <f>469*0.06/469/12</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P2">
+        <f ca="1">RAND()*10/469</f>
+        <v>9.3482804632705457E-3</v>
+      </c>
+      <c r="Q2">
+        <f ca="1">SUM(M2:P2)</f>
+        <v>6.4348280463270541E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -570,19 +682,55 @@
         <v>0.36</v>
       </c>
       <c r="F3">
-        <f>SUM(C3:E3)</f>
+        <f t="shared" si="0"/>
         <v>6.36</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="1">F3*250</f>
+        <v>1590</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="2">G3*7</f>
+        <v>11130</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="3">H3/469</f>
+        <v>23.731343283582088</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="4">I3/40</f>
+        <v>0.59328358208955223</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M8" si="5">469/2/12/469</f>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N8" si="6">469*0.1/12/469</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O8" si="7">469*0.06/469/12</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P8" ca="1" si="8">RAND()*10/469</f>
+        <v>6.0772054671400701E-3</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q8" ca="1" si="9">SUM(M3:P3)</f>
+        <v>6.1077205467140072E-2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>1.99</v>
@@ -594,19 +742,55 @@
         <v>0.12</v>
       </c>
       <c r="F4">
-        <f>SUM(C4:E4)</f>
+        <f t="shared" si="0"/>
         <v>2.21</v>
       </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>552.5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>3867.5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>8.2462686567164187</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>0.20615671641791047</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.0937901961808891E-2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.5937901961808885E-2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>3.2</v>
@@ -618,19 +802,55 @@
         <v>0.19</v>
       </c>
       <c r="F5">
-        <f>SUM(C5:E5)</f>
+        <f t="shared" si="0"/>
         <v>5.3900000000000006</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1347.5000000000002</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>9432.5000000000018</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>20.111940298507466</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0.50279850746268662</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.2542772944024089E-2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.7542772944024082E-2</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
       </c>
       <c r="C6">
         <v>3.1</v>
@@ -642,19 +862,55 @@
         <v>0.19</v>
       </c>
       <c r="F6">
-        <f>SUM(C6:E6)</f>
+        <f t="shared" si="0"/>
         <v>3.29</v>
       </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>822.5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>5757.5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>12.276119402985074</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0.30690298507462688</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ca="1" si="8"/>
+        <v>9.292426275308574E-3</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.4292426275308567E-2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>3.6</v>
@@ -666,19 +922,55 @@
         <v>0.22</v>
       </c>
       <c r="F7">
-        <f>SUM(C7:E7)</f>
+        <f t="shared" si="0"/>
         <v>3.8200000000000003</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>955.00000000000011</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>6685.0000000000009</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>14.253731343283585</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0.35634328358208961</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.9422830839032026E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.4422830839032034E-2</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
       </c>
       <c r="C8">
         <v>3.58</v>
@@ -690,60 +982,117 @@
         <v>0.21</v>
       </c>
       <c r="F8">
-        <f>SUM(C8:E8)</f>
+        <f t="shared" si="0"/>
         <v>3.79</v>
       </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>947.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>6632.5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>14.14179104477612</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.35354477611940299</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.9800396726368614E-3</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.798003967263686E-2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1"/>
-    <hyperlink ref="F13" r:id="rId2"/>
-    <hyperlink ref="F15" r:id="rId3"/>
-    <hyperlink ref="F14" r:id="rId4"/>
-    <hyperlink ref="I7" r:id="rId5"/>
+    <hyperlink ref="T5" r:id="rId1"/>
+    <hyperlink ref="C17" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId3"/>
+    <hyperlink ref="C18" r:id="rId4"/>
+    <hyperlink ref="T7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
